--- a/data/trans_orig/IP07A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D1DE7A-8442-4365-A667-1B582AFF4604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11264820-6E11-41D1-BB64-CE4EF0D52AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3F7B55B7-7415-43E5-8E4A-396E7F07F6CA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2F6BEEC1-0BC3-433B-A819-BDECF44568E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,18 +67,246 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
     <t>21,4%</t>
   </si>
   <si>
@@ -100,33 +328,6 @@
     <t>19,1%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>42,58%</t>
   </si>
   <si>
@@ -154,27 +355,6 @@
     <t>52,53%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>40,74%</t>
   </si>
   <si>
@@ -202,114 +382,153 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
     <t>16,16%</t>
   </si>
   <si>
@@ -337,36 +556,9 @@
     <t>22,41%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
     <t>40,3%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
     <t>48,28%</t>
   </si>
   <si>
@@ -388,12 +580,6 @@
     <t>47,71%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>42,23%</t>
   </si>
   <si>
@@ -421,190 +607,40 @@
     <t>45,82%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>12,63%</t>
@@ -634,27 +670,6 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>46,24%</t>
   </si>
   <si>
@@ -682,21 +697,6 @@
     <t>50,79%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>40,01%</t>
   </si>
   <si>
@@ -727,6 +727,189 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>5,78%</t>
   </si>
   <si>
@@ -754,24 +937,6 @@
     <t>8,76%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
     <t>40,29%</t>
   </si>
   <si>
@@ -799,12 +964,6 @@
     <t>44,14%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>53,29%</t>
   </si>
   <si>
@@ -829,106 +988,130 @@
     <t>60,0%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -955,27 +1138,6 @@
     <t>12,66%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
     <t>44,82%</t>
   </si>
   <si>
@@ -1000,15 +1162,6 @@
     <t>50,12%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>46,21%</t>
   </si>
   <si>
@@ -1036,157 +1189,37 @@
     <t>51,86%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>6,69%</t>
@@ -1216,27 +1249,6 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
     <t>37,21%</t>
   </si>
   <si>
@@ -1264,18 +1276,6 @@
     <t>40,61%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>54,36%</t>
   </si>
   <si>
@@ -1306,6 +1306,195 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
     <t>5,55%</t>
   </si>
   <si>
@@ -1330,30 +1519,6 @@
     <t>9,3%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
     <t>40,46%</t>
   </si>
   <si>
@@ -1378,18 +1543,6 @@
     <t>34,45%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
     <t>50,07%</t>
   </si>
   <si>
@@ -1414,88 +1567,127 @@
     <t>55,58%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>9,12%</t>
@@ -1522,27 +1714,6 @@
     <t>20,58%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
     <t>35,77%</t>
   </si>
   <si>
@@ -1570,21 +1741,6 @@
     <t>42,5%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>48,98%</t>
   </si>
   <si>
@@ -1606,160 +1762,31 @@
     <t>50,37%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>8,51%</t>
@@ -1789,18 +1816,6 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
     <t>37,99%</t>
   </si>
   <si>
@@ -1823,21 +1838,6 @@
   </si>
   <si>
     <t>39,81%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
   </si>
   <si>
     <t>52,0%</t>
@@ -2253,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C7EF05-305D-4B67-985C-F0BD6630E4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5126436A-4969-4FCA-B88F-9E33E3A468D0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2371,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>15194</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2386,238 +2386,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>14444</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>46</v>
-      </c>
-      <c r="N4" s="7">
-        <v>29638</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1333</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>42252</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>53892</v>
+        <v>1576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>96144</v>
+        <v>1576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>680</v>
+        <v>9262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>12041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>680</v>
+        <v>21302</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>40430</v>
+        <v>4554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>35003</v>
+        <v>1421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>75433</v>
+        <v>5975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,108 +2626,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>103993</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203228</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6714</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>7080</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>13794</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2751,13 +2751,13 @@
         <v>647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2766,121 +2766,121 @@
         <v>647</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>40196</v>
+        <v>6714</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>27178</v>
+        <v>7080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>67374</v>
+        <v>13794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>40196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="7">
         <v>40</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>27178</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>67374</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>32</v>
@@ -2889,13 +2889,13 @@
         <v>20089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2904,13 +2904,13 @@
         <v>14074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -2919,13 +2919,13 @@
         <v>34163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2940,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2955,13 +2955,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -2970,270 +2970,270 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>16035</v>
+        <v>680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>17384</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>33419</v>
+        <v>680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>680</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>654</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1304</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2234</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
       <c r="N17" s="7">
-        <v>3538</v>
+        <v>1333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>39998</v>
+        <v>15194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>39354</v>
+        <v>14444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="N18" s="7">
-        <v>79352</v>
+        <v>29638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>42252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>53892</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>96144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7">
-        <v>41906</v>
+        <v>40430</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I20" s="7">
-        <v>32953</v>
+        <v>35003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="N20" s="7">
-        <v>74859</v>
+        <v>75433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,54 +3242,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>99242</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>91926</v>
+        <v>103993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>191167</v>
+        <v>203228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3301,208 +3301,208 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1576</v>
+        <v>462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1576</v>
+        <v>462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>9262</v>
+        <v>5716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>12041</v>
+        <v>10548</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>21302</v>
+        <v>16263</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7">
+        <v>28088</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="7">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>23475</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>51562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D26" s="7">
-        <v>4554</v>
+        <v>31289</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>144</v>
@@ -3514,34 +3514,34 @@
         <v>146</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I26" s="7">
-        <v>1421</v>
+        <v>25886</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="N26" s="7">
-        <v>5975</v>
+        <v>57175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,297 +3550,297 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>127351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>5716</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="H28" s="7">
-        <v>18</v>
-      </c>
-      <c r="I28" s="7">
-        <v>10548</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" s="7">
-        <v>27</v>
-      </c>
-      <c r="N28" s="7">
-        <v>16263</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>1203</v>
+        <v>1304</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2234</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3538</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>687</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1889</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D30" s="7">
-        <v>28088</v>
+        <v>16035</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="7">
+        <v>23</v>
+      </c>
+      <c r="I30" s="7">
+        <v>17384</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>47</v>
+      </c>
+      <c r="N30" s="7">
+        <v>33419</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="7">
-        <v>38</v>
-      </c>
-      <c r="I30" s="7">
-        <v>23475</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M30" s="7">
-        <v>81</v>
-      </c>
-      <c r="N30" s="7">
-        <v>51562</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>39998</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="7">
+        <v>51</v>
+      </c>
+      <c r="I31" s="7">
+        <v>39354</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M31" s="7">
+        <v>110</v>
+      </c>
+      <c r="N31" s="7">
+        <v>79352</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>462</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>462</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D32" s="7">
-        <v>31289</v>
+        <v>41906</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>43</v>
+      </c>
+      <c r="I32" s="7">
+        <v>32953</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H32" s="7">
-        <v>42</v>
-      </c>
-      <c r="I32" s="7">
-        <v>25886</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>185</v>
       </c>
       <c r="M32" s="7">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N32" s="7">
-        <v>57175</v>
+        <v>74859</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>186</v>
@@ -3858,49 +3858,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>99242</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>91926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="N33" s="7">
-        <v>127351</v>
+        <v>191167</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,55 +3911,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>43658</v>
+        <v>680</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>462</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H34" s="7">
-        <v>76</v>
-      </c>
-      <c r="I34" s="7">
-        <v>51032</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1142</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M34" s="7">
-        <v>142</v>
-      </c>
-      <c r="N34" s="7">
-        <v>94690</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -3968,13 +3968,13 @@
         <v>3186</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -3983,13 +3983,13 @@
         <v>4221</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -3998,121 +3998,121 @@
         <v>7407</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="D36" s="7">
-        <v>159796</v>
+        <v>43658</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="7">
+        <v>76</v>
+      </c>
+      <c r="I36" s="7">
+        <v>51032</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>142</v>
+      </c>
+      <c r="N36" s="7">
+        <v>94690</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="7">
-        <v>229</v>
-      </c>
-      <c r="I36" s="7">
-        <v>155939</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M36" s="7">
-        <v>468</v>
-      </c>
-      <c r="N36" s="7">
-        <v>315735</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="D37" s="7">
-        <v>680</v>
+        <v>159796</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H37" s="7">
+        <v>229</v>
+      </c>
+      <c r="I37" s="7">
+        <v>155939</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>462</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>468</v>
+      </c>
+      <c r="N37" s="7">
+        <v>315735</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1142</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>208</v>
@@ -4172,13 +4172,13 @@
         <v>345587</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
@@ -4187,13 +4187,13 @@
         <v>320991</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>995</v>
@@ -4202,13 +4202,13 @@
         <v>666578</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4229,7 +4229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E7FB92-EBEB-4E84-A2D0-CEE5689C36E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F3128-4C6D-4408-8509-BB7B90EEB595}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4347,253 +4347,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5620</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5838</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4" s="7">
-        <v>17</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11458</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1292</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1917</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>39156</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>36544</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>75700</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4591</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>51789</v>
+        <v>10814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>55494</v>
+        <v>11028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>107283</v>
+        <v>21842</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,108 +4602,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>99168</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>196358</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3217</v>
+        <v>687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2662</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>5879</v>
+        <v>687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4712,13 +4712,13 @@
         <v>679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4727,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4742,121 +4742,121 @@
         <v>679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>19136</v>
+        <v>3217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>20984</v>
+        <v>2662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>40120</v>
+        <v>5879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>687</v>
+        <v>19136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>20984</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>687</v>
+        <v>40120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>50</v>
@@ -4865,13 +4865,13 @@
         <v>34455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4880,13 +4880,13 @@
         <v>30036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -4895,13 +4895,13 @@
         <v>64492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4916,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -4931,13 +4931,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -4946,270 +4946,270 @@
         <v>111857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>6342</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>9474</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>15816</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>625</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1292</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>2014</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>798</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
       <c r="N17" s="7">
-        <v>2812</v>
+        <v>1917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>41744</v>
+        <v>5620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>39513</v>
+        <v>5838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N18" s="7">
-        <v>81256</v>
+        <v>11458</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>39156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>36544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>75700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
-        <v>43031</v>
+        <v>51789</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I20" s="7">
-        <v>41542</v>
+        <v>55494</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="N20" s="7">
-        <v>84573</v>
+        <v>107283</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,72 +5218,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>93130</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>99168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="N21" s="7">
-        <v>184457</v>
+        <v>196358</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5292,49 +5292,49 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5343,181 +5343,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>3676</v>
+        <v>7055</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>915</v>
+        <v>7161</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>4591</v>
+        <v>14216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>220</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7">
+        <v>20021</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="7">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>24691</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>44712</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7">
-        <v>10814</v>
+        <v>40654</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>53</v>
+      </c>
+      <c r="I26" s="7">
+        <v>34672</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H26" s="7">
-        <v>13</v>
-      </c>
-      <c r="I26" s="7">
-        <v>11028</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>116</v>
+      </c>
+      <c r="N26" s="7">
+        <v>75326</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M26" s="7">
-        <v>25</v>
-      </c>
-      <c r="N26" s="7">
-        <v>21842</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,252 +5526,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="7">
-        <v>7055</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H28" s="7">
-        <v>11</v>
-      </c>
-      <c r="I28" s="7">
-        <v>7161</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M28" s="7">
-        <v>23</v>
-      </c>
-      <c r="N28" s="7">
-        <v>14216</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>1187</v>
+        <v>2014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>257</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>64</v>
+        <v>354</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>1187</v>
+        <v>2812</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>20021</v>
+        <v>6342</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H30" s="7">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9474</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M30" s="7">
+        <v>19</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15816</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="H30" s="7">
-        <v>38</v>
-      </c>
-      <c r="I30" s="7">
-        <v>24691</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="M30" s="7">
-        <v>70</v>
-      </c>
-      <c r="N30" s="7">
-        <v>44712</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7">
-        <v>607</v>
+        <v>41744</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H31" s="7">
+        <v>51</v>
+      </c>
+      <c r="I31" s="7">
+        <v>39513</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M31" s="7">
+        <v>109</v>
+      </c>
+      <c r="N31" s="7">
+        <v>81256</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>607</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>373</v>
@@ -5780,13 +5780,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D32" s="7">
-        <v>40654</v>
+        <v>43031</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>374</v>
@@ -5798,10 +5798,10 @@
         <v>376</v>
       </c>
       <c r="H32" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I32" s="7">
-        <v>34672</v>
+        <v>41542</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>377</v>
@@ -5813,10 +5813,10 @@
         <v>379</v>
       </c>
       <c r="M32" s="7">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N32" s="7">
-        <v>75326</v>
+        <v>84573</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>380</v>
@@ -5834,49 +5834,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="N33" s="7">
-        <v>136048</v>
+        <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,55 +5887,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>22234</v>
+        <v>1294</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>383</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H34" s="7">
-        <v>35</v>
-      </c>
-      <c r="I34" s="7">
-        <v>25136</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1294</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M34" s="7">
-        <v>68</v>
-      </c>
-      <c r="N34" s="7">
-        <v>47369</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>7</v>
@@ -5944,13 +5944,13 @@
         <v>4504</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -5959,13 +5959,13 @@
         <v>2090</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -5974,112 +5974,112 @@
         <v>6595</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="D36" s="7">
-        <v>123732</v>
+        <v>22234</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H36" s="7">
+        <v>35</v>
+      </c>
+      <c r="I36" s="7">
+        <v>25136</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>68</v>
+      </c>
+      <c r="N36" s="7">
+        <v>47369</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H36" s="7">
-        <v>175</v>
-      </c>
-      <c r="I36" s="7">
-        <v>122647</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="M36" s="7">
-        <v>356</v>
-      </c>
-      <c r="N36" s="7">
-        <v>246379</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D37" s="7">
-        <v>1294</v>
+        <v>123732</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H37" s="7">
+        <v>175</v>
+      </c>
+      <c r="I37" s="7">
+        <v>122647</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>356</v>
+      </c>
+      <c r="N37" s="7">
+        <v>246379</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1294</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>411</v>
@@ -6088,7 +6088,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>261</v>
@@ -6148,13 +6148,13 @@
         <v>332508</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -6163,13 +6163,13 @@
         <v>322645</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>942</v>
@@ -6178,13 +6178,13 @@
         <v>655153</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6205,7 +6205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6648C1B1-CB16-48D4-840F-16C8B96EAEB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCC94E2-0988-4405-9210-CA31422E19C0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6323,253 +6323,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5976</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>7484</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="M4" s="7">
-        <v>21</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13460</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3532</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>431</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2867</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>6398</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>43554</v>
+        <v>1842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>41549</v>
+        <v>1023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>85102</v>
+        <v>2865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>690</v>
+        <v>3245</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>431</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>617</v>
+        <v>2843</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>1307</v>
+        <v>6087</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>53898</v>
+        <v>9227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>53496</v>
+        <v>10060</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="M8" s="7">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>107393</v>
+        <v>19288</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>456</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,108 +6578,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>107649</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106012</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>213661</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2392</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>8790</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>11182</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6688,13 +6688,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6718,121 +6718,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>25828</v>
+        <v>2392</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>19346</v>
+        <v>8790</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="M12" s="7">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>45173</v>
+        <v>11182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>25828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>19346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>460</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>45173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>462</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -6841,13 +6841,13 @@
         <v>31093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -6856,13 +6856,13 @@
         <v>28780</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -6871,13 +6871,13 @@
         <v>59873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6892,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -6907,13 +6907,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -6922,270 +6922,270 @@
         <v>116228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>14938</v>
+        <v>690</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>17821</v>
+        <v>617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>32759</v>
+        <v>1307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>636</v>
+        <v>3532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>3669</v>
+        <v>2867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>4304</v>
+        <v>6398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>36536</v>
+        <v>5976</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>41196</v>
+        <v>7484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>505</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="M18" s="7">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="N18" s="7">
-        <v>77732</v>
+        <v>13460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>43554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>494</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>1067</v>
+        <v>41549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>497</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="N19" s="7">
-        <v>1067</v>
+        <v>85102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>514</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
-        <v>50032</v>
+        <v>53898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I20" s="7">
-        <v>43840</v>
+        <v>53496</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="N20" s="7">
-        <v>93872</v>
+        <v>107393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>520</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,108 +7194,108 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D21" s="7">
-        <v>102142</v>
+        <v>107649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="N21" s="7">
-        <v>209734</v>
+        <v>213661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1842</v>
+        <v>549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>522</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="7">
-        <v>1023</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
       <c r="N22" s="7">
-        <v>2865</v>
+        <v>549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -7304,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7319,13 +7319,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7334,166 +7334,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>3245</v>
+        <v>5610</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>2843</v>
+        <v>10601</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N24" s="7">
-        <v>6087</v>
+        <v>16212</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>28121</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>521</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>522</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H25" s="7">
+        <v>35</v>
+      </c>
+      <c r="I25" s="7">
+        <v>22508</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="M25" s="7">
+        <v>73</v>
+      </c>
+      <c r="N25" s="7">
+        <v>50629</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>229</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7">
-        <v>9227</v>
+        <v>43663</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H26" s="7">
+        <v>60</v>
+      </c>
+      <c r="I26" s="7">
+        <v>38601</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M26" s="7">
+        <v>122</v>
+      </c>
+      <c r="N26" s="7">
+        <v>82264</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="H26" s="7">
-        <v>11</v>
-      </c>
-      <c r="I26" s="7">
-        <v>10060</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="M26" s="7">
-        <v>22</v>
-      </c>
-      <c r="N26" s="7">
-        <v>19288</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,282 +7502,282 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>5610</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>545</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>546</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>10601</v>
+        <v>1067</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>549</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M28" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>16212</v>
+        <v>1067</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>543</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>3669</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>545</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>360</v>
+        <v>546</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>4304</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>40</v>
+        <v>548</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D30" s="7">
-        <v>28121</v>
+        <v>14938</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H30" s="7">
+        <v>23</v>
+      </c>
+      <c r="I30" s="7">
+        <v>17821</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M30" s="7">
+        <v>44</v>
+      </c>
+      <c r="N30" s="7">
+        <v>32759</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>22508</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="M30" s="7">
-        <v>73</v>
-      </c>
-      <c r="N30" s="7">
-        <v>50629</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D31" s="7">
-        <v>549</v>
+        <v>36536</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>105</v>
+        <v>558</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>559</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>311</v>
+        <v>560</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>41196</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>561</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>562</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>360</v>
+        <v>563</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="N31" s="7">
-        <v>549</v>
+        <v>77732</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>564</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>565</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D32" s="7">
-        <v>43663</v>
+        <v>50032</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>568</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" s="7">
-        <v>38601</v>
+        <v>43840</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>569</v>
@@ -7789,16 +7789,16 @@
         <v>571</v>
       </c>
       <c r="M32" s="7">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N32" s="7">
-        <v>82264</v>
+        <v>93872</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>572</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>573</v>
@@ -7810,49 +7810,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>102142</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>209734</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,55 +7863,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>30759</v>
+        <v>1239</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1684</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2923</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H34" s="7">
-        <v>65</v>
-      </c>
-      <c r="I34" s="7">
-        <v>45719</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="M34" s="7">
-        <v>108</v>
-      </c>
-      <c r="N34" s="7">
-        <v>76477</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -7920,13 +7920,13 @@
         <v>4167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -7935,13 +7935,13 @@
         <v>6536</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -7950,106 +7950,106 @@
         <v>10703</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="D36" s="7">
-        <v>137283</v>
+        <v>30759</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H36" s="7">
+        <v>65</v>
+      </c>
+      <c r="I36" s="7">
+        <v>45719</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H36" s="7">
-        <v>181</v>
-      </c>
-      <c r="I36" s="7">
-        <v>127441</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>108</v>
+      </c>
+      <c r="N36" s="7">
+        <v>76477</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="M36" s="7">
-        <v>369</v>
-      </c>
-      <c r="N36" s="7">
-        <v>264724</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="D37" s="7">
-        <v>1239</v>
+        <v>137283</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>310</v>
+        <v>592</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>593</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>468</v>
+        <v>566</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="I37" s="7">
-        <v>1684</v>
+        <v>127441</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>596</v>
       </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="N37" s="7">
-        <v>2923</v>
+        <v>264724</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>597</v>
@@ -8064,7 +8064,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>257</v>
@@ -8103,7 +8103,7 @@
         <v>362689</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>606</v>
@@ -8124,13 +8124,13 @@
         <v>361361</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8139,13 +8139,13 @@
         <v>356155</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>1005</v>
@@ -8154,13 +8154,13 @@
         <v>717516</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11264820-6E11-41D1-BB64-CE4EF0D52AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D74FD40-E86E-4EC1-A375-E525F911DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2F6BEEC1-0BC3-433B-A819-BDECF44568E4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F64CE6C-C4A3-4E75-81DC-1B551A400C27}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="610">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -70,1798 +70,1804 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1878,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1968,39 +1974,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2052,7 +2058,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2163,13 +2169,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2178,6 +2177,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2242,19 +2248,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5126436A-4969-4FCA-B88F-9E33E3A468D0}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FBAD47-33F6-4E4B-8C4F-7E890B0B7719}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2371,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4554</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2386,91 +2412,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1421</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5975</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>9262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>12041</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>21302</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2479,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2494,13 +2520,13 @@
         <v>1576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2509,115 +2535,115 @@
         <v>1576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>9262</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>12041</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>21302</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4554</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>5975</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,106 +2705,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>20089</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>14074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>34163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>40196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>647</v>
+        <v>27178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>647</v>
+        <v>67374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -2787,13 +2813,13 @@
         <v>6714</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2802,13 +2828,13 @@
         <v>7080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -2817,115 +2843,115 @@
         <v>13794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>40196</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>27178</v>
+        <v>647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>67374</v>
+        <v>647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>20089</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>14074</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>34163</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,112 +3007,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>680</v>
+        <v>40430</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>35003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="N16" s="7">
-        <v>680</v>
+        <v>75433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>680</v>
+        <v>42252</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>654</v>
+        <v>53892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="N17" s="7">
-        <v>1333</v>
+        <v>96144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -3095,13 +3121,13 @@
         <v>15194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -3110,13 +3136,13 @@
         <v>14444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3125,112 +3151,112 @@
         <v>29638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>42252</v>
+        <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>53892</v>
+        <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>96144</v>
+        <v>1333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>40430</v>
+        <v>680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>35003</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>75433</v>
+        <v>680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>113</v>
@@ -3295,106 +3321,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>31289</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I22" s="7">
-        <v>462</v>
+        <v>25886</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="N22" s="7">
-        <v>462</v>
+        <v>57175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7">
-        <v>1203</v>
+        <v>28088</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7">
-        <v>687</v>
+        <v>23475</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="N23" s="7">
-        <v>1889</v>
+        <v>51562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>9</v>
@@ -3403,13 +3429,13 @@
         <v>5716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -3418,13 +3444,13 @@
         <v>10548</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -3433,115 +3459,115 @@
         <v>16263</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>28088</v>
+        <v>1203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>23475</v>
+        <v>687</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>51562</v>
+        <v>1889</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>31289</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>25886</v>
+        <v>462</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>462</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M26" s="7">
-        <v>92</v>
-      </c>
-      <c r="N26" s="7">
-        <v>57175</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,112 +3623,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>41906</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>32953</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>74859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7">
-        <v>1304</v>
+        <v>39998</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>2234</v>
+        <v>39354</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="N29" s="7">
-        <v>3538</v>
+        <v>79352</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>24</v>
@@ -3711,13 +3737,13 @@
         <v>16035</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -3726,13 +3752,13 @@
         <v>17384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -3741,115 +3767,115 @@
         <v>33419</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>39998</v>
+        <v>1304</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>39354</v>
+        <v>2234</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>79352</v>
+        <v>3538</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>41906</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>32953</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>74859</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,106 +3937,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="D34" s="7">
-        <v>680</v>
+        <v>138268</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="I34" s="7">
-        <v>462</v>
+        <v>109337</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>372</v>
       </c>
       <c r="N34" s="7">
-        <v>1142</v>
+        <v>247605</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="D35" s="7">
-        <v>3186</v>
+        <v>159796</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="I35" s="7">
-        <v>4221</v>
+        <v>155939</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M35" s="7">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="N35" s="7">
-        <v>7407</v>
+        <v>315735</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>66</v>
@@ -4019,13 +4045,13 @@
         <v>43658</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H36" s="7">
         <v>76</v>
@@ -4034,13 +4060,13 @@
         <v>51032</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>142</v>
@@ -4049,115 +4075,115 @@
         <v>94690</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>239</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>159796</v>
+        <v>3186</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="I37" s="7">
-        <v>155939</v>
+        <v>4221</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>315735</v>
+        <v>7407</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>138268</v>
+        <v>680</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>109337</v>
+        <v>462</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="M38" s="7">
-        <v>372</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>247605</v>
+        <v>1142</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,6 +4235,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4229,8 +4260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F3128-4C6D-4408-8509-BB7B90EEB595}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D14E501-E1D8-45B9-8DBF-DDD87BFB5D5F}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4246,7 +4277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4347,106 +4378,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10814</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>21842</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>4591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4455,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4470,13 +4501,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4485,115 +4516,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>4591</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>10814</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>11028</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>21842</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,106 +4686,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>687</v>
+        <v>34455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>30036</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>687</v>
+        <v>64492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>679</v>
+        <v>19136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>20984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>679</v>
+        <v>40120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -4763,13 +4794,13 @@
         <v>3217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4778,13 +4809,13 @@
         <v>2662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -4793,112 +4824,112 @@
         <v>5879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>19136</v>
+        <v>679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>20984</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>40120</v>
+        <v>679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>34455</v>
+        <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>30036</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>64492</v>
+        <v>687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>281</v>
@@ -4957,112 +4988,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>51789</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>55494</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>107283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>625</v>
+        <v>39156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>1292</v>
+        <v>36544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="N17" s="7">
-        <v>1917</v>
+        <v>75700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -5071,13 +5102,13 @@
         <v>5620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5086,13 +5117,13 @@
         <v>5838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -5101,115 +5132,115 @@
         <v>11458</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>39156</v>
+        <v>625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>36544</v>
+        <v>1292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>75700</v>
+        <v>1917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>51789</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>55494</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>107283</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,106 +5302,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>607</v>
+        <v>40654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>34672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="N22" s="7">
-        <v>607</v>
+        <v>75326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7">
-        <v>1187</v>
+        <v>20021</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>24691</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="N23" s="7">
-        <v>1187</v>
+        <v>44712</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
@@ -5379,13 +5410,13 @@
         <v>7055</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -5394,13 +5425,13 @@
         <v>7161</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5409,115 +5440,115 @@
         <v>14216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>20021</v>
+        <v>1187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>24691</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>69</v>
       </c>
       <c r="M25" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>44712</v>
+        <v>1187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>40654</v>
+        <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>34672</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="M26" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>75326</v>
+        <v>607</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,112 +5604,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>43031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>41542</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>350</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>84573</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7">
-        <v>2014</v>
+        <v>41744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>798</v>
+        <v>39513</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="N29" s="7">
-        <v>2812</v>
+        <v>81256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>8</v>
@@ -5687,13 +5718,13 @@
         <v>6342</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5702,13 +5733,13 @@
         <v>9474</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -5717,112 +5748,112 @@
         <v>15816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>41744</v>
+        <v>2014</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>375</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H31" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>39513</v>
+        <v>798</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>369</v>
+        <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M31" s="7">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>81256</v>
+        <v>2812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>43031</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>374</v>
+        <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H32" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>41542</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M32" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>84573</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>382</v>
@@ -5887,106 +5918,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="D34" s="7">
-        <v>1294</v>
+        <v>180743</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>383</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>172772</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>506</v>
       </c>
       <c r="N34" s="7">
-        <v>1294</v>
+        <v>353515</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>388</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="D35" s="7">
-        <v>4504</v>
+        <v>123732</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>48</v>
+        <v>392</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H35" s="7">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="I35" s="7">
-        <v>2090</v>
+        <v>122647</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="N35" s="7">
-        <v>6595</v>
+        <v>246379</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>33</v>
@@ -5995,13 +6026,13 @@
         <v>22234</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -6010,13 +6041,13 @@
         <v>25136</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -6025,115 +6056,115 @@
         <v>47369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>123732</v>
+        <v>4504</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H37" s="7">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>122647</v>
+        <v>2090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M37" s="7">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>246379</v>
+        <v>6595</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>180743</v>
+        <v>1294</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>413</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H38" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>172772</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M38" s="7">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>353515</v>
+        <v>1294</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>418</v>
+        <v>224</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>419</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>420</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,6 +6216,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6205,8 +6241,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCC94E2-0988-4405-9210-CA31422E19C0}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6263AA-D5AE-4FC9-8D38-B6F1D7B3FB6E}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6222,7 +6258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6323,106 +6359,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9227</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>10060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>19288</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -6431,13 +6467,13 @@
         <v>1842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6446,13 +6482,13 @@
         <v>1023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6461,115 +6497,115 @@
         <v>2865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3245</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>430</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>431</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2843</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>6087</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>435</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>436</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>9227</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>439</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>10060</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>441</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>442</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>19288</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>444</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>445</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,106 +6667,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>31093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>28780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>59873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>25828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>19346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>45173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -6739,13 +6775,13 @@
         <v>2392</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -6754,13 +6790,13 @@
         <v>8790</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -6769,112 +6805,112 @@
         <v>11182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>25828</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>457</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>458</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>19346</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>460</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>45173</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>462</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>31093</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>465</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>28780</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M14" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>59873</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>471</v>
+        <v>15</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>473</v>
@@ -6933,112 +6969,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>690</v>
+        <v>53898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>475</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>617</v>
+        <v>53496</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="N16" s="7">
-        <v>1307</v>
+        <v>107393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>3532</v>
+        <v>43554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>2867</v>
+        <v>41549</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>485</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>6398</v>
+        <v>85102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -7047,13 +7083,13 @@
         <v>5976</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7062,13 +7098,13 @@
         <v>7484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>494</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -7077,115 +7113,115 @@
         <v>13460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>43554</v>
+        <v>3532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>494</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>495</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>41549</v>
+        <v>2867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M19" s="7">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>85102</v>
+        <v>6398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>53898</v>
+        <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>501</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>502</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H20" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>53496</v>
+        <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>504</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>506</v>
       </c>
       <c r="M20" s="7">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>107393</v>
+        <v>1307</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,106 +7283,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>549</v>
+        <v>43663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>508</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>38601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>512</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="N22" s="7">
-        <v>549</v>
+        <v>82264</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>28121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>517</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>518</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>22508</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>520</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>521</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>320</v>
+        <v>522</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>50629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>523</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>524</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
@@ -7355,13 +7391,13 @@
         <v>5610</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -7370,13 +7406,13 @@
         <v>10601</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -7385,115 +7421,115 @@
         <v>16212</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>28121</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>22508</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>524</v>
+        <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>525</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>50629</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>527</v>
+        <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>528</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>529</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>43663</v>
+        <v>549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>531</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>38601</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>533</v>
+        <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>535</v>
+        <v>341</v>
       </c>
       <c r="M26" s="7">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>82264</v>
+        <v>549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,112 +7585,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>50032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>539</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>540</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I28" s="7">
-        <v>1067</v>
+        <v>43840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>543</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="N28" s="7">
-        <v>1067</v>
+        <v>93872</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>546</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7">
-        <v>636</v>
+        <v>36536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="I29" s="7">
-        <v>3669</v>
+        <v>41196</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="N29" s="7">
-        <v>4304</v>
+        <v>77732</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>21</v>
@@ -7663,13 +7699,13 @@
         <v>14938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>331</v>
+        <v>557</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -7678,13 +7714,13 @@
         <v>17821</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -7693,115 +7729,115 @@
         <v>32759</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>36536</v>
+        <v>636</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>558</v>
+        <v>228</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>559</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>560</v>
+        <v>107</v>
       </c>
       <c r="H31" s="7">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>41196</v>
+        <v>3669</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>562</v>
+        <v>272</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M31" s="7">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="N31" s="7">
-        <v>77732</v>
+        <v>4304</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>50032</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>567</v>
+        <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>568</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>570</v>
       </c>
       <c r="H32" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>43840</v>
+        <v>1067</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>569</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>570</v>
+        <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1067</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="M32" s="7">
-        <v>125</v>
-      </c>
-      <c r="N32" s="7">
-        <v>93872</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,106 +7899,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="D34" s="7">
-        <v>1239</v>
+        <v>187914</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>356</v>
+        <v>572</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>573</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>448</v>
+        <v>574</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="I34" s="7">
-        <v>1684</v>
+        <v>174776</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>576</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="N34" s="7">
-        <v>2923</v>
+        <v>362689</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="D35" s="7">
-        <v>4167</v>
+        <v>137283</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>383</v>
+        <v>582</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="H35" s="7">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="I35" s="7">
-        <v>6536</v>
+        <v>127441</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="M35" s="7">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="N35" s="7">
-        <v>10703</v>
+        <v>264724</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>349</v>
+        <v>586</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>386</v>
+        <v>587</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>43</v>
@@ -7971,13 +8007,13 @@
         <v>30759</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H36" s="7">
         <v>65</v>
@@ -7986,13 +8022,13 @@
         <v>45719</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -8001,115 +8037,115 @@
         <v>76477</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>137283</v>
+        <v>4167</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="H37" s="7">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>127441</v>
+        <v>6536</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="M37" s="7">
-        <v>369</v>
+        <v>15</v>
       </c>
       <c r="N37" s="7">
-        <v>264724</v>
+        <v>10703</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>597</v>
+        <v>380</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>257</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>187914</v>
+        <v>1239</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>600</v>
+        <v>218</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>601</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>602</v>
+        <v>463</v>
       </c>
       <c r="H38" s="7">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>174776</v>
+        <v>1684</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>604</v>
+        <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M38" s="7">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>362689</v>
+        <v>2923</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,6 +8197,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A11-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D74FD40-E86E-4EC1-A375-E525F911DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C5BD10-E73A-4AA3-83D7-33EDE98ABC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F64CE6C-C4A3-4E75-81DC-1B551A400C27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCBE4000-F864-4D9E-9151-EE6121526F87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="612">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,10 +76,10 @@
     <t>32,96%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>9,45%</t>
@@ -88,391 +88,397 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,42%</t>
+    <t>34,68%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
     <t>32,61%</t>
   </si>
   <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>52,95%</t>
   </si>
   <si>
     <t>44,9%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>5,94%</t>
+    <t>5,55%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>5,58%</t>
+    <t>4,93%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -481,7 +487,7 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,98%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -490,7 +496,7 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,68%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -502,88 +508,88 @@
     <t>42,23%</t>
   </si>
   <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>39,16%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>40,3%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
   </si>
   <si>
     <t>42,81%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>41,51%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,43%</t>
@@ -592,1276 +598,1276 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
     <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -2279,7 +2285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FBAD47-33F6-4E4B-8C4F-7E890B0B7719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3976BAF9-198E-43F0-9A0D-FD88913A5C65}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2813,13 +2819,13 @@
         <v>6714</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2828,13 +2834,13 @@
         <v>7080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -2843,13 +2849,13 @@
         <v>13794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,7 +2876,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2879,13 +2885,13 @@
         <v>647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2894,13 +2900,13 @@
         <v>647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2927,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2936,7 +2942,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2951,7 +2957,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,7 +3013,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3019,13 +3025,13 @@
         <v>40430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3034,13 +3040,13 @@
         <v>35003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -3049,13 +3055,13 @@
         <v>75433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3076,13 @@
         <v>42252</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -3085,13 +3091,13 @@
         <v>53892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>150</v>
@@ -3100,13 +3106,13 @@
         <v>96144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3127,13 @@
         <v>15194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -3136,13 +3142,13 @@
         <v>14444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3151,13 +3157,13 @@
         <v>29638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3178,13 @@
         <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3187,13 +3193,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3202,13 +3208,13 @@
         <v>1333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3229,13 @@
         <v>680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3244,7 +3250,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3253,13 +3259,13 @@
         <v>680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,7 +3321,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3327,13 +3333,13 @@
         <v>31289</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3342,13 +3348,13 @@
         <v>25886</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -3357,13 +3363,13 @@
         <v>57175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3384,13 @@
         <v>28088</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -3393,13 +3399,13 @@
         <v>23475</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>81</v>
@@ -3408,13 +3414,13 @@
         <v>51562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3435,13 @@
         <v>5716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -3444,13 +3450,13 @@
         <v>10548</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -3459,13 +3465,13 @@
         <v>16263</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3486,13 @@
         <v>1203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3495,13 +3501,13 @@
         <v>687</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3510,13 +3516,13 @@
         <v>1889</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3543,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3546,13 +3552,13 @@
         <v>462</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3561,13 +3567,13 @@
         <v>462</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3629,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3635,13 +3641,13 @@
         <v>41906</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -3650,13 +3656,13 @@
         <v>32953</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -3665,13 +3671,13 @@
         <v>74859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3692,13 @@
         <v>39998</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -3701,13 +3707,13 @@
         <v>39354</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>110</v>
@@ -3716,13 +3722,13 @@
         <v>79352</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3743,13 @@
         <v>16035</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -3752,13 +3758,13 @@
         <v>17384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -3767,13 +3773,13 @@
         <v>33419</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3794,13 @@
         <v>1304</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3803,13 +3809,13 @@
         <v>2234</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -3818,13 +3824,13 @@
         <v>3538</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3851,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3860,7 +3866,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3875,7 +3881,7 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3949,13 @@
         <v>138268</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>164</v>
@@ -3958,13 +3964,13 @@
         <v>109337</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>372</v>
@@ -3973,13 +3979,13 @@
         <v>247605</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4000,13 @@
         <v>159796</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H35" s="7">
         <v>229</v>
@@ -4009,13 +4015,13 @@
         <v>155939</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M35" s="7">
         <v>468</v>
@@ -4024,7 +4030,7 @@
         <v>315735</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>206</v>
@@ -4111,7 +4117,7 @@
         <v>4221</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>220</v>
@@ -4132,7 +4138,7 @@
         <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4153,13 @@
         <v>680</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4162,13 +4168,13 @@
         <v>462</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4177,13 +4183,13 @@
         <v>1142</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>228</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,7 +4266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D14E501-E1D8-45B9-8DBF-DDD87BFB5D5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6861DD-76CD-42A1-A0A0-10BD740171C7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4441,7 +4447,7 @@
         <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4450,13 +4456,13 @@
         <v>915</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4465,13 +4471,13 @@
         <v>4591</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4498,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4507,7 +4513,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4522,7 +4528,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4549,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4558,7 +4564,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4573,7 +4579,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,7 +4600,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4609,7 +4615,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4624,7 +4630,7 @@
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4698,13 @@
         <v>34455</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4707,13 +4713,13 @@
         <v>30036</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -4722,13 +4728,13 @@
         <v>64492</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4749,13 @@
         <v>19136</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4758,13 +4764,13 @@
         <v>20984</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -4773,13 +4779,13 @@
         <v>40120</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4800,13 @@
         <v>3217</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4902,7 +4908,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4932,7 +4938,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,7 +4994,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5000,13 +5006,13 @@
         <v>51789</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -5015,13 +5021,13 @@
         <v>55494</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -5030,13 +5036,13 @@
         <v>107283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5057,13 @@
         <v>39156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -5066,13 +5072,13 @@
         <v>36544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -5081,13 +5087,13 @@
         <v>75700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5108,13 @@
         <v>5620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5117,13 +5123,13 @@
         <v>5838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -5132,13 +5138,13 @@
         <v>11458</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5159,13 @@
         <v>625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5168,13 +5174,13 @@
         <v>1292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5183,13 +5189,13 @@
         <v>1917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,7 +5216,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5225,7 +5231,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5240,7 +5246,7 @@
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5302,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5308,13 +5314,13 @@
         <v>40654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -5323,13 +5329,13 @@
         <v>34672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -5338,13 +5344,13 @@
         <v>75326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5365,13 @@
         <v>20021</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -5374,13 +5380,13 @@
         <v>24691</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -5389,13 +5395,13 @@
         <v>44712</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5416,13 @@
         <v>7055</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -5425,13 +5431,13 @@
         <v>7161</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5440,13 +5446,13 @@
         <v>14216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5467,13 @@
         <v>1187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5482,7 +5488,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5491,13 +5497,13 @@
         <v>1187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5518,13 @@
         <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5533,7 +5539,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5542,13 +5548,13 @@
         <v>607</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,7 +5610,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5616,13 +5622,13 @@
         <v>43031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>54</v>
@@ -5631,13 +5637,13 @@
         <v>41542</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M28" s="7">
         <v>113</v>
@@ -5646,13 +5652,13 @@
         <v>84573</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5673,13 @@
         <v>41744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>358</v>
+        <v>95</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -5682,13 +5688,13 @@
         <v>39513</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -5697,13 +5703,13 @@
         <v>81256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5724,13 @@
         <v>6342</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5733,13 +5739,13 @@
         <v>9474</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -5748,13 +5754,13 @@
         <v>15816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5775,13 @@
         <v>2014</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>375</v>
+        <v>109</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5784,13 +5790,13 @@
         <v>798</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5799,13 +5805,13 @@
         <v>2812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,7 +5832,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5841,7 +5847,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5856,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5930,13 @@
         <v>180743</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H34" s="7">
         <v>245</v>
@@ -5939,13 +5945,13 @@
         <v>172772</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>128</v>
+        <v>389</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M34" s="7">
         <v>506</v>
@@ -5954,13 +5960,13 @@
         <v>353515</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5981,13 @@
         <v>123732</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H35" s="7">
         <v>175</v>
@@ -5990,13 +5996,13 @@
         <v>122647</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M35" s="7">
         <v>356</v>
@@ -6005,13 +6011,13 @@
         <v>246379</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6032,13 @@
         <v>22234</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -6041,13 +6047,13 @@
         <v>25136</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>404</v>
+        <v>35</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -6056,13 +6062,13 @@
         <v>47369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6083,13 @@
         <v>4504</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6092,13 +6098,13 @@
         <v>2090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>413</v>
+        <v>150</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -6149,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6158,13 +6164,13 @@
         <v>1294</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6263AA-D5AE-4FC9-8D38-B6F1D7B3FB6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89B3F2D-7C9A-4AF3-BD0A-5DA9116A5DA3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6258,7 +6264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6365,13 +6371,13 @@
         <v>9227</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -6380,13 +6386,13 @@
         <v>10060</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -6395,13 +6401,13 @@
         <v>19288</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6422,13 @@
         <v>3245</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6431,13 +6437,13 @@
         <v>2843</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6446,13 +6452,13 @@
         <v>6087</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6473,13 @@
         <v>1842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6482,13 +6488,13 @@
         <v>1023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6497,13 +6503,13 @@
         <v>2865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>442</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6530,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6539,7 +6545,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6554,7 +6560,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,7 +6581,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6590,7 +6596,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6605,7 +6611,7 @@
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6679,13 @@
         <v>31093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6688,13 +6694,13 @@
         <v>28780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -6703,13 +6709,13 @@
         <v>59873</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6730,13 @@
         <v>25828</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -6739,13 +6745,13 @@
         <v>19346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>455</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -6754,13 +6760,13 @@
         <v>45173</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6781,13 @@
         <v>2392</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -6790,13 +6796,13 @@
         <v>8790</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -6805,13 +6811,13 @@
         <v>11182</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6838,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6847,7 +6853,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6862,7 +6868,7 @@
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6889,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6898,7 +6904,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6913,7 +6919,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,7 +6975,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6981,13 +6987,13 @@
         <v>53898</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -6996,13 +7002,13 @@
         <v>53496</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -7011,13 +7017,13 @@
         <v>107393</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,10 +7038,10 @@
         <v>43554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>481</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>483</v>
@@ -7083,13 +7089,13 @@
         <v>5976</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7098,13 +7104,13 @@
         <v>7484</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>495</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -7113,13 +7119,13 @@
         <v>13460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>498</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7140,13 @@
         <v>3532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>497</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7149,13 +7155,13 @@
         <v>2867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7164,13 +7170,13 @@
         <v>6398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7191,13 @@
         <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7200,13 +7206,13 @@
         <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7221,7 +7227,7 @@
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7289,13 +7295,13 @@
         <v>43663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -7304,13 +7310,13 @@
         <v>38601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -7319,13 +7325,13 @@
         <v>82264</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7346,13 @@
         <v>28121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -7355,13 +7361,13 @@
         <v>22508</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -7370,13 +7376,13 @@
         <v>50629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7397,13 @@
         <v>5610</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -7406,13 +7412,13 @@
         <v>10601</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -7421,13 +7427,13 @@
         <v>16212</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,7 +7454,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7463,7 +7469,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7478,7 +7484,7 @@
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7499,13 @@
         <v>549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>536</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>533</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7514,7 +7520,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7523,13 +7529,13 @@
         <v>549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,7 +7591,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7597,13 +7603,13 @@
         <v>50032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>539</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -7612,13 +7618,13 @@
         <v>43840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M28" s="7">
         <v>125</v>
@@ -7627,13 +7633,13 @@
         <v>93872</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +7654,13 @@
         <v>36536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -7663,13 +7669,13 @@
         <v>41196</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -7678,13 +7684,13 @@
         <v>77732</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7705,13 @@
         <v>14938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -7714,13 +7720,13 @@
         <v>17821</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -7729,13 +7735,13 @@
         <v>32759</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,13 +7756,13 @@
         <v>636</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>228</v>
+        <v>562</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>107</v>
+        <v>563</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -7765,13 +7771,13 @@
         <v>3669</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>566</v>
+        <v>407</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -7780,13 +7786,13 @@
         <v>4304</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,7 +7813,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7816,13 +7822,13 @@
         <v>1067</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>569</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7831,13 +7837,13 @@
         <v>1067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>415</v>
+        <v>571</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +7911,13 @@
         <v>187914</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H34" s="7">
         <v>252</v>
@@ -7920,13 +7926,13 @@
         <v>174776</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M34" s="7">
         <v>509</v>
@@ -7935,13 +7941,13 @@
         <v>362689</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,13 +7962,13 @@
         <v>137283</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H35" s="7">
         <v>181</v>
@@ -7971,13 +7977,13 @@
         <v>127441</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>292</v>
+        <v>587</v>
       </c>
       <c r="M35" s="7">
         <v>369</v>
@@ -7986,13 +7992,13 @@
         <v>264724</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>586</v>
+        <v>19</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,13 +8013,13 @@
         <v>30759</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H36" s="7">
         <v>65</v>
@@ -8022,10 +8028,10 @@
         <v>45719</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>593</v>
+        <v>337</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>594</v>
@@ -8088,7 +8094,7 @@
         <v>10703</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>604</v>
@@ -8109,13 +8115,13 @@
         <v>1239</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>218</v>
+        <v>606</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>463</v>
+        <v>607</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8124,13 +8130,13 @@
         <v>1684</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>607</v>
+        <v>150</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -8139,13 +8145,13 @@
         <v>2923</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
